--- a/part.xlsx
+++ b/part.xlsx
@@ -46,8 +46,7 @@
     <t>Mũi khoan  phi 5</t>
   </si>
   <si>
-    <t xml:space="preserve">5mm
-</t>
+    <t>5mm</t>
   </si>
   <si>
     <t>C-02</t>

--- a/part.xlsx
+++ b/part.xlsx
@@ -11,122 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Location</t>
+    <t>Total Qty</t>
   </si>
   <si>
-    <t>kim khâu 121</t>
+    <t>Total Export Qty</t>
   </si>
   <si>
-    <t>kh001</t>
-  </si>
-  <si>
-    <t>K-1-2</t>
-  </si>
-  <si>
-    <t>khuy áo 1111</t>
-  </si>
-  <si>
-    <t>ka001</t>
-  </si>
-  <si>
-    <t>K-2-3</t>
-  </si>
-  <si>
-    <t>Mũi khoan  phi 5</t>
-  </si>
-  <si>
-    <t>5mm</t>
-  </si>
-  <si>
-    <t>C-02</t>
-  </si>
-  <si>
-    <t>Dao phay ngón phi 3</t>
+    <t>p1234</t>
   </si>
   <si>
     <t>3S4</t>
-  </si>
-  <si>
-    <t>C-03</t>
-  </si>
-  <si>
-    <t>Nút nhấn nhả xanh nhỏ 1</t>
-  </si>
-  <si>
-    <t>DS-314</t>
-  </si>
-  <si>
-    <t>P-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đầu đo nhiệt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80PK-26
-</t>
-  </si>
-  <si>
-    <t>D-09</t>
-  </si>
-  <si>
-    <t>Đầu nối nhanh, chữ Y, phi 8mm</t>
-  </si>
-  <si>
-    <t>PY08</t>
-  </si>
-  <si>
-    <t>F-67</t>
-  </si>
-  <si>
-    <t>kim khâu</t>
-  </si>
-  <si>
-    <t>Đầu đo nhiệt</t>
-  </si>
-  <si>
-    <t>80PK-26</t>
-  </si>
-  <si>
-    <t>Nút nhấn nhả xanh nhỏ</t>
-  </si>
-  <si>
-    <t>gdgdg</t>
-  </si>
-  <si>
-    <t>sgsdgs</t>
-  </si>
-  <si>
-    <t>dgd</t>
-  </si>
-  <si>
-    <t>Ke vuông</t>
-  </si>
-  <si>
-    <t>KV120</t>
-  </si>
-  <si>
-    <t>D-30</t>
-  </si>
-  <si>
-    <t>Bộ tua vít nhỏ</t>
-  </si>
-  <si>
-    <t>BTVN1</t>
-  </si>
-  <si>
-    <t>K10</t>
   </si>
 </sst>
 </file>
@@ -503,14 +402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="4" width="30" customWidth="1"/>
+    <col min="1" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,288 +418,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
